--- a/biology/Botanique/Lophocolea_minor/Lophocolea_minor.xlsx
+++ b/biology/Botanique/Lophocolea_minor/Lophocolea_minor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lophocolea minor est une espèce d'hépatiques  de la classe des Jungermanniopsida (hépatiques à lobes), de la famille des Lophocoleaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (8 juillet 2013)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (8 juillet 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Lophocolea minor var. chinensis C. Massal.
-Certains auteurs réfutent l'appellation Lophocolea minor et proposent Chiloscyphus minor (Nees) J.J. Engel &amp; R.M. Schust. ou Lophocolea heterophylla (Schrad.) Dumort. comme appellation valide[3].
+Certains auteurs réfutent l'appellation Lophocolea minor et proposent Chiloscyphus minor (Nees) J.J. Engel &amp; R.M. Schust. ou Lophocolea heterophylla (Schrad.) Dumort. comme appellation valide.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est inscrite sur la liste rouge régionale des Bryophytes du Nord-Pas-de-Calais, comme espèce disparue régionalement. Elle était citée à la fin du XIXe siècle en Forêt de Clairmarais par le Frère Gasilien mais n'a pas été signalée depuis (Lecron, Toussaint et Hauguel 2013).
 </t>
